--- a/zipcodeNYC.xlsx
+++ b/zipcodeNYC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.lassus\BYCN_Online\OneDrive - BYCN\2. Formation\3. Externe\MOOC\IBM Data Science\Github\NYC_Covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\c.lassus\Documents\Github\nyc_covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="53">
   <si>
     <t>Borough</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Longitude</t>
+  </si>
+  <si>
+    <t>landsqmi</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E175" sqref="C1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,7 +524,7 @@
     <col min="3" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -537,8 +540,11 @@
       <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -554,8 +560,11 @@
       <c r="E2">
         <v>-73.996530000000007</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="E3">
         <v>-73.986999999999995</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -588,8 +600,11 @@
       <c r="E4">
         <v>-73.989350000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -605,8 +620,11 @@
       <c r="E5">
         <v>-73.925379000000007</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -622,8 +640,11 @@
       <c r="E6">
         <v>-74.008579999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -639,8 +660,11 @@
       <c r="E7">
         <v>-74.013419999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -656,8 +680,11 @@
       <c r="E8">
         <v>-74.007210000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -673,8 +700,11 @@
       <c r="E9">
         <v>-73.978639999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -690,8 +720,11 @@
       <c r="E10">
         <v>-73.982050000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -707,8 +740,11 @@
       <c r="E11">
         <v>-74.000119999999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -724,8 +760,11 @@
       <c r="E12">
         <v>-73.998339999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -741,8 +780,11 @@
       <c r="E13">
         <v>-74.005260000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -758,8 +800,11 @@
       <c r="E14">
         <v>-74.005319999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -775,8 +820,11 @@
       <c r="E15">
         <v>-73.977590000000006</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -792,8 +840,11 @@
       <c r="E16">
         <v>-73.972309999999993</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -809,8 +860,11 @@
       <c r="E17">
         <v>-73.993369999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -826,8 +880,11 @@
       <c r="E18">
         <v>-73.985600000000005</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -843,8 +900,11 @@
       <c r="E19">
         <v>-73.980239999999995</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -860,8 +920,11 @@
       <c r="E20">
         <v>-73.960449999999994</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -877,8 +940,11 @@
       <c r="E21">
         <v>-73.967320000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -894,8 +960,11 @@
       <c r="E22">
         <v>-73.982849999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -911,8 +980,11 @@
       <c r="E23">
         <v>-73.977090000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -928,8 +1000,11 @@
       <c r="E24">
         <v>-73.968109999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -945,8 +1020,11 @@
       <c r="E25">
         <v>-73.954710000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -962,8 +1040,11 @@
       <c r="E26">
         <v>-73.954989999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -979,8 +1060,11 @@
       <c r="E27">
         <v>-73.954099999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -996,8 +1080,11 @@
       <c r="E28">
         <v>-73.945750000000004</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1013,8 +1100,11 @@
       <c r="E29">
         <v>-73.943510000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1030,8 +1120,11 @@
       <c r="E30">
         <v>-73.948790000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -1047,8 +1140,11 @@
       <c r="E31">
         <v>-73.941540000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -1064,8 +1160,11 @@
       <c r="E32">
         <v>-73.934960000000004</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -1081,8 +1180,11 @@
       <c r="E33">
         <v>-73.92</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -1098,8 +1200,11 @@
       <c r="E34">
         <v>-73.933589999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -1115,8 +1220,11 @@
       <c r="E35">
         <v>-73.990189999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -1132,8 +1240,11 @@
       <c r="E36">
         <v>-73.936160000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
@@ -1149,8 +1260,11 @@
       <c r="E37">
         <v>-74.003649999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>22</v>
       </c>
@@ -1166,8 +1280,11 @@
       <c r="E38">
         <v>-73.937100000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>22</v>
       </c>
@@ -1183,8 +1300,11 @@
       <c r="E39">
         <v>-73.928529999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>22</v>
       </c>
@@ -1200,8 +1320,11 @@
       <c r="E40">
         <v>-73.949169999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
@@ -1217,8 +1340,11 @@
       <c r="E41">
         <v>-73.960466999999994</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>22</v>
       </c>
@@ -1234,8 +1360,11 @@
       <c r="E42">
         <v>-73.969461999999993</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>22</v>
       </c>
@@ -1251,8 +1380,11 @@
       <c r="E43">
         <v>-73.950389999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
@@ -1268,8 +1400,11 @@
       <c r="E44">
         <v>-74.017799999999994</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
@@ -1285,8 +1420,11 @@
       <c r="E45">
         <v>-74.094319999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1302,8 +1440,11 @@
       <c r="E46">
         <v>-74.137150000000005</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
@@ -1319,8 +1460,11 @@
       <c r="E47">
         <v>-74.162390000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>44</v>
       </c>
@@ -1336,8 +1480,11 @@
       <c r="E48">
         <v>-74.089910000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>44</v>
       </c>
@@ -1353,8 +1500,11 @@
       <c r="E49">
         <v>-74.075029999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>44</v>
       </c>
@@ -1370,8 +1520,11 @@
       <c r="E50">
         <v>-74.117850000000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>44</v>
       </c>
@@ -1387,8 +1540,11 @@
       <c r="E51">
         <v>-74.243870000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>44</v>
       </c>
@@ -1404,8 +1560,11 @@
       <c r="E52">
         <v>-74.150980000000004</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>44</v>
       </c>
@@ -1421,8 +1580,11 @@
       <c r="E53">
         <v>-74.213040000000007</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>44</v>
       </c>
@@ -1438,8 +1600,11 @@
       <c r="E54">
         <v>-74.11551</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>44</v>
       </c>
@@ -1455,8 +1620,11 @@
       <c r="E55">
         <v>-74.176280000000006</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>7.68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>44</v>
       </c>
@@ -1472,8 +1640,11 @@
       <c r="E56">
         <v>-74.145129999999995</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>13.71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -1489,8 +1660,11 @@
       <c r="E57">
         <v>-73.922300000000007</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -1506,8 +1680,11 @@
       <c r="E58">
         <v>-73.922340000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -1523,8 +1700,11 @@
       <c r="E59">
         <v>-73.912139999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -1540,8 +1720,11 @@
       <c r="E60">
         <v>-73.91628</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>2</v>
       </c>
@@ -1557,8 +1740,11 @@
       <c r="E61">
         <v>-73.907709999999994</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
@@ -1574,8 +1760,11 @@
       <c r="E62">
         <v>-73.908559999999994</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>2</v>
       </c>
@@ -1591,8 +1780,11 @@
       <c r="E63">
         <v>-73.898610000000005</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -1608,8 +1800,11 @@
       <c r="E64">
         <v>-73.888810000000007</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -1625,8 +1820,11 @@
       <c r="E65">
         <v>-73.893270000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -1642,8 +1840,11 @@
       <c r="E66">
         <v>-73.880359999999996</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1860,11 @@
       <c r="E67">
         <v>-73.838189999999997</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -1676,8 +1880,11 @@
       <c r="E68">
         <v>-73.858620000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -1693,8 +1900,11 @@
       <c r="E69">
         <v>-73.907489999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -1710,8 +1920,11 @@
       <c r="E70">
         <v>-73.789029999999997</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
@@ -1727,8 +1940,11 @@
       <c r="E71">
         <v>-73.817520000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>2</v>
       </c>
@@ -1744,8 +1960,11 @@
       <c r="E72">
         <v>-73.847020000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
@@ -1761,8 +1980,11 @@
       <c r="E73">
         <v>-73.869370000000004</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -1778,8 +2000,11 @@
       <c r="E74">
         <v>-73.899159999999995</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>2</v>
       </c>
@@ -1795,8 +2020,11 @@
       <c r="E75">
         <v>-73.847350000000006</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>2</v>
       </c>
@@ -1812,8 +2040,11 @@
       <c r="E76">
         <v>-73.860720000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
@@ -1829,8 +2060,11 @@
       <c r="E77">
         <v>-73.903469999999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>2</v>
       </c>
@@ -1846,8 +2080,11 @@
       <c r="E78">
         <v>-73.868449999999996</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
@@ -1863,8 +2100,11 @@
       <c r="E79">
         <v>-73.858930000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>2</v>
       </c>
@@ -1880,8 +2120,11 @@
       <c r="E80">
         <v>-73.887550000000005</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
@@ -1897,8 +2140,11 @@
       <c r="E81">
         <v>-73.825410000000005</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>33</v>
       </c>
@@ -1914,8 +2160,11 @@
       <c r="E82">
         <v>-73.709559999999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>33</v>
       </c>
@@ -1931,8 +2180,11 @@
       <c r="E83">
         <v>-73.714799999999997</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>33</v>
       </c>
@@ -1948,8 +2200,11 @@
       <c r="E84">
         <v>-73.939070000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>33</v>
       </c>
@@ -1965,8 +2220,11 @@
       <c r="E85">
         <v>-73.924620000000004</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>33</v>
       </c>
@@ -1982,8 +2240,11 @@
       <c r="E86">
         <v>-73.910910000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>33</v>
       </c>
@@ -1999,8 +2260,11 @@
       <c r="E87">
         <v>-73.919489999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>33</v>
       </c>
@@ -2016,8 +2280,11 @@
       <c r="E88">
         <v>-73.908159999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>33</v>
       </c>
@@ -2033,8 +2300,11 @@
       <c r="E89">
         <v>-73.931470000000004</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>10</v>
       </c>
@@ -2050,8 +2320,11 @@
       <c r="E90">
         <v>-73.989069999999998</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>10</v>
       </c>
@@ -2067,8 +2340,11 @@
       <c r="E91">
         <v>-73.933040000000005</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>10</v>
       </c>
@@ -2084,8 +2360,11 @@
       <c r="E92">
         <v>-73.984729999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,8 +2380,11 @@
       <c r="E93">
         <v>-73.965289999999996</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
@@ -2118,8 +2400,11 @@
       <c r="E94">
         <v>-73.942880000000002</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>10</v>
       </c>
@@ -2135,8 +2420,11 @@
       <c r="E95">
         <v>-73.894239999999996</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>10</v>
       </c>
@@ -2152,8 +2440,11 @@
       <c r="E96">
         <v>-73.872479999999996</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>10</v>
       </c>
@@ -2169,8 +2460,11 @@
       <c r="E97">
         <v>-74.029499999999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>10</v>
       </c>
@@ -2186,8 +2480,11 @@
       <c r="E98">
         <v>-73.945520000000002</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
@@ -2203,8 +2500,11 @@
       <c r="E99">
         <v>-73.954269999999994</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
@@ -2220,8 +2520,11 @@
       <c r="E100">
         <v>-73.91328</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>10</v>
       </c>
@@ -2237,8 +2540,11 @@
       <c r="E101">
         <v>-73.93459</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>10</v>
       </c>
@@ -2254,8 +2560,11 @@
       <c r="E102">
         <v>-73.996110000000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
@@ -2271,8 +2580,11 @@
       <c r="E103">
         <v>-73.985600000000005</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>10</v>
       </c>
@@ -2288,8 +2600,11 @@
       <c r="E104">
         <v>-73.948239999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>10</v>
       </c>
@@ -2305,8 +2620,11 @@
       <c r="E105">
         <v>-73.977829999999997</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>10</v>
       </c>
@@ -2322,8 +2640,11 @@
       <c r="E106">
         <v>-73.975949999999997</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>10</v>
       </c>
@@ -2339,8 +2660,11 @@
       <c r="E107">
         <v>-73.996290000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>10</v>
       </c>
@@ -2356,8 +2680,11 @@
       <c r="E108">
         <v>-74.015739999999994</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>10</v>
       </c>
@@ -2373,8 +2700,11 @@
       <c r="E109">
         <v>-73.926370000000006</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>10</v>
       </c>
@@ -2390,8 +2720,11 @@
       <c r="E110">
         <v>-73.945589999999996</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>10</v>
       </c>
@@ -2407,8 +2740,11 @@
       <c r="E111">
         <v>-73.972290000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>10</v>
       </c>
@@ -2424,8 +2760,11 @@
       <c r="E112">
         <v>-73.991720000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>10</v>
       </c>
@@ -2441,8 +2780,11 @@
       <c r="E113">
         <v>-73.955089999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>10</v>
       </c>
@@ -2458,8 +2800,11 @@
       <c r="E114">
         <v>-73.955529999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>10</v>
       </c>
@@ -2475,8 +2820,11 @@
       <c r="E115">
         <v>-74.011679999999998</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>10</v>
       </c>
@@ -2492,8 +2840,11 @@
       <c r="E116">
         <v>-73.941180000000003</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>10</v>
       </c>
@@ -2509,8 +2860,11 @@
       <c r="E117">
         <v>-73.964269999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>10</v>
       </c>
@@ -2526,8 +2880,11 @@
       <c r="E118">
         <v>-74.002539999999996</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>10</v>
       </c>
@@ -2543,8 +2900,11 @@
       <c r="E119">
         <v>-74.004239999999996</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>10</v>
       </c>
@@ -2560,8 +2920,11 @@
       <c r="E120">
         <v>-73.918580000000006</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>10</v>
       </c>
@@ -2577,8 +2940,11 @@
       <c r="E121">
         <v>-73.921599999999998</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>10</v>
       </c>
@@ -2594,8 +2960,11 @@
       <c r="E122">
         <v>-73.950190000000006</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>10</v>
       </c>
@@ -2611,8 +2980,11 @@
       <c r="E123">
         <v>-73.903620000000004</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>10</v>
       </c>
@@ -2628,8 +3000,11 @@
       <c r="E124">
         <v>-73.919929999999994</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>10</v>
       </c>
@@ -2645,8 +3020,11 @@
       <c r="E125">
         <v>-73.962569999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>10</v>
       </c>
@@ -2662,8 +3040,11 @@
       <c r="E126">
         <v>-73.879189999999994</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>33</v>
       </c>
@@ -2679,8 +3060,11 @@
       <c r="E127">
         <v>-73.824960000000004</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>33</v>
       </c>
@@ -2696,8 +3080,11 @@
       <c r="E128">
         <v>-73.819410000000005</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>33</v>
       </c>
@@ -2713,8 +3100,11 @@
       <c r="E129">
         <v>-73.84366</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>33</v>
       </c>
@@ -2730,8 +3120,11 @@
       <c r="E130">
         <v>-73.809219999999996</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +3140,11 @@
       <c r="E131">
         <v>-73.796120000000002</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>33</v>
       </c>
@@ -2764,8 +3160,11 @@
       <c r="E132">
         <v>-73.776701000000003</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>33</v>
       </c>
@@ -2781,8 +3180,11 @@
       <c r="E133">
         <v>-73.780050000000003</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>33</v>
       </c>
@@ -2798,8 +3200,11 @@
       <c r="E134">
         <v>-73.773920000000004</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>33</v>
       </c>
@@ -2815,8 +3220,11 @@
       <c r="E135">
         <v>-73.733220000000003</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>33</v>
       </c>
@@ -2832,8 +3240,11 @@
       <c r="E136">
         <v>-73.746440000000007</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>33</v>
       </c>
@@ -2849,8 +3260,11 @@
       <c r="E137">
         <v>-73.75994</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>33</v>
       </c>
@@ -2866,8 +3280,11 @@
       <c r="E138">
         <v>-73.792090000000002</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>33</v>
       </c>
@@ -2883,8 +3300,11 @@
       <c r="E139">
         <v>-73.795019999999994</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>33</v>
       </c>
@@ -2900,8 +3320,11 @@
       <c r="E140">
         <v>-73.821449999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>33</v>
       </c>
@@ -2917,8 +3340,11 @@
       <c r="E141">
         <v>-73.858379999999997</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>33</v>
       </c>
@@ -2934,8 +3360,11 @@
       <c r="E142">
         <v>-73.870509999999996</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>33</v>
       </c>
@@ -2951,8 +3380,11 @@
       <c r="E143">
         <v>-73.890519999999995</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>33</v>
       </c>
@@ -2968,8 +3400,11 @@
       <c r="E144">
         <v>-73.884330000000006</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>33</v>
       </c>
@@ -2985,8 +3420,11 @@
       <c r="E145">
         <v>-73.878039999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>33</v>
       </c>
@@ -3002,8 +3440,11 @@
       <c r="E146">
         <v>-73.860900000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>33</v>
       </c>
@@ -3019,8 +3460,11 @@
       <c r="E147">
         <v>-73.845820000000003</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>33</v>
       </c>
@@ -3036,8 +3480,11 @@
       <c r="E148">
         <v>-73.903769999999994</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>33</v>
       </c>
@@ -3053,8 +3500,11 @@
       <c r="E149">
         <v>-73.902709999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>33</v>
       </c>
@@ -3070,8 +3520,11 @@
       <c r="E150">
         <v>-73.879249999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>33</v>
       </c>
@@ -3087,8 +3540,11 @@
       <c r="E151">
         <v>-73.892849999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>33</v>
       </c>
@@ -3104,8 +3560,11 @@
       <c r="E152">
         <v>-73.735740000000007</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>33</v>
       </c>
@@ -3121,8 +3580,11 @@
       <c r="E153">
         <v>-73.759479999999996</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>33</v>
       </c>
@@ -3138,8 +3600,11 @@
       <c r="E154">
         <v>-73.751410000000007</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>33</v>
       </c>
@@ -3155,8 +3620,11 @@
       <c r="E155">
         <v>-73.843209999999999</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>33</v>
       </c>
@@ -3172,8 +3640,11 @@
       <c r="E156">
         <v>-73.829729999999998</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>33</v>
       </c>
@@ -3189,8 +3660,11 @@
       <c r="E157">
         <v>-73.850300000000004</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>33</v>
       </c>
@@ -3206,8 +3680,11 @@
       <c r="E158">
         <v>-73.844759999999994</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>33</v>
       </c>
@@ -3223,8 +3700,11 @@
       <c r="E159">
         <v>-73.833650000000006</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>33</v>
       </c>
@@ -3240,8 +3720,11 @@
       <c r="E160">
         <v>-73.822159999999997</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>33</v>
       </c>
@@ -3257,8 +3740,11 @@
       <c r="E161">
         <v>-73.814430000000002</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>33</v>
       </c>
@@ -3274,8 +3760,11 @@
       <c r="E162">
         <v>-73.858279999999993</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>33</v>
       </c>
@@ -3291,8 +3780,11 @@
       <c r="E163">
         <v>-73.735140000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>33</v>
       </c>
@@ -3308,8 +3800,11 @@
       <c r="E164">
         <v>-73.768240000000006</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>33</v>
       </c>
@@ -3325,8 +3820,11 @@
       <c r="E165">
         <v>-73.721080000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>33</v>
       </c>
@@ -3342,8 +3840,11 @@
       <c r="E166">
         <v>-73.747820000000004</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>33</v>
       </c>
@@ -3359,8 +3860,11 @@
       <c r="E167">
         <v>-73.74127</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>33</v>
       </c>
@@ -3376,8 +3880,11 @@
       <c r="E168">
         <v>-73.73903</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>33</v>
       </c>
@@ -3393,8 +3900,11 @@
       <c r="E169">
         <v>-73.793239999999997</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>33</v>
       </c>
@@ -3410,8 +3920,11 @@
       <c r="E170">
         <v>-73.78734</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>33</v>
       </c>
@@ -3427,8 +3940,11 @@
       <c r="E171">
         <v>-73.7727</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>33</v>
       </c>
@@ -3444,8 +3960,11 @@
       <c r="E172">
         <v>-73.80986</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>33</v>
       </c>
@@ -3461,8 +3980,11 @@
       <c r="E173">
         <v>-73.796869999999998</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>33</v>
       </c>
@@ -3478,8 +4000,11 @@
       <c r="E174">
         <v>-73.759619999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>33</v>
       </c>
@@ -3495,8 +4020,11 @@
       <c r="E175">
         <v>-73.795680000000004</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>33</v>
       </c>
@@ -3512,8 +4040,11 @@
       <c r="E176">
         <v>-73.819779999999994</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>33</v>
       </c>
@@ -3529,8 +4060,11 @@
       <c r="E177">
         <v>-73.847210000000004</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>33</v>
       </c>
@@ -3546,8 +4080,11 @@
       <c r="E178">
         <v>-73.870778999999999</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>33</v>
       </c>
@@ -3562,6 +4099,9 @@
       </c>
       <c r="E179">
         <v>-73.908910000000006</v>
+      </c>
+      <c r="F179">
+        <v>2.2200000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/zipcodeNYC.xlsx
+++ b/zipcodeNYC.xlsx
@@ -513,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F179"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4080,9 +4080,6 @@
       <c r="E178">
         <v>-73.870778999999999</v>
       </c>
-      <c r="F178" t="e">
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
